--- a/data/metadata/Informe-01-010003-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010003-A-TC-TM-TP.xlsx
@@ -46,16 +46,10 @@
     <t>null</t>
   </si>
   <si>
-    <t>iaest-measure:municipio-nombre</t>
-  </si>
-  <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
-    <t>iaest-dimension:aragon</t>
-  </si>
-  <si>
-    <t>iaest-measure:superficie-util</t>
+    <t>iaest-dimension:superficie-util</t>
   </si>
   <si>
     <t>medida</t>
@@ -67,16 +61,22 @@
     <t>xsd:int</t>
   </si>
   <si>
+    <t>URI-Municipio</t>
+  </si>
+  <si>
     <t>URI-Provincia</t>
   </si>
   <si>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
     <t>skos:Concept</t>
   </si>
   <si>
     <t>URI-comarca</t>
   </si>
   <si>
-    <t>mapping-aragon.xlsx</t>
+    <t>mapping-superficie-util.xlsx</t>
   </si>
 </sst>
 </file>
@@ -176,19 +176,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>10</v>
@@ -196,28 +196,28 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>10</v>
@@ -225,25 +225,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>20</v>
@@ -253,7 +253,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/data/metadata/Informe-01-010003-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-010003-A-TC-TM-TP.xlsx
@@ -13,31 +13,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
-    <t>numero-hogares</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>municipio-nombre</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>aragon</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>superficie-util</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
-  </si>
-  <si>
-    <t>municipio-codigo</t>
+    <t>Superficie útil</t>
+  </si>
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>Número hogares</t>
+  </si>
+  <si>
+    <t>Comarca código</t>
+  </si>
+  <si>
+    <t>Provincia código</t>
+  </si>
+  <si>
+    <t>Aragón</t>
+  </si>
+  <si>
+    <t>Municipio código</t>
+  </si>
+  <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
+    <t>Municipio nombre</t>
+  </si>
+  <si>
+    <t>iaest-dimension:superficie-util</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
   </si>
   <si>
     <t>iaest-measure:numero-hogares</t>
@@ -46,34 +52,28 @@
     <t>null</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-dimension:superficie-util</t>
+    <t>dim</t>
   </si>
   <si>
     <t>medida</t>
   </si>
   <si>
-    <t>dim</t>
+    <t>skos:Concept</t>
+  </si>
+  <si>
+    <t>URI-comarca</t>
   </si>
   <si>
     <t>xsd:int</t>
   </si>
   <si>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
+    <t>URI-Provincia</t>
+  </si>
+  <si>
     <t>URI-Municipio</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
-    <t>URI-Comunidad</t>
-  </si>
-  <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
-    <t>URI-comarca</t>
   </si>
   <si>
     <t>mapping-superficie-util.xlsx</t>
@@ -176,10 +176,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -188,7 +188,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>10</v>
@@ -199,28 +199,28 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -228,32 +228,32 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="5">
-      <c r="G5" s="1" t="s">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
